--- a/data/trans_orig/P37AS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{342794FC-A301-4228-89A8-F958AEB5DB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4004B2C1-0494-4501-957A-0FFDCE844FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E64F8228-4989-412A-896F-2692861C90A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9163B737-4154-4BBE-90CA-5F9152A1E3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="73">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -130,7 +130,7 @@
     <t>65,98%</t>
   </si>
   <si>
-    <t>16,71%</t>
+    <t>16,57%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -139,19 +139,19 @@
     <t>75,22%</t>
   </si>
   <si>
-    <t>35,09%</t>
+    <t>36,65%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>83,29%</t>
+    <t>83,43%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>64,91%</t>
+    <t>63,35%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -163,40 +163,43 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>65,38%</t>
+    <t>58,55%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>46,14%</t>
+    <t>45,54%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>33,93%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,79%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,28%</t>
+    <t>56,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -665,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F5D41-05E6-4A34-9292-D906EA05E6ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C8C4FD-AB44-4739-BF97-B266A70C1F72}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2339,7 +2342,7 @@
         <v>48</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2357,13 @@
         <v>1883</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2384,13 +2387,13 @@
         <v>1883</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2449,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFEF906-820E-454C-96B7-B16D2202E293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63057428-46EA-4E7D-81EE-87DE6F104BF9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2485,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,7 +3756,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3804,7 +3807,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3852,7 +3855,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
@@ -3882,7 +3885,7 @@
         <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>24</v>
@@ -3906,7 +3909,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4109,7 +4112,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>24</v>
@@ -4139,7 +4142,7 @@
         <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>24</v>
@@ -4249,7 +4252,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4271,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DD2FD5-C58B-403C-9F28-A966182F67A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2958B0D0-5136-478A-B0A7-C55E4079DEF8}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4288,7 +4291,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5596,7 +5599,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5624,7 +5627,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,7 +5648,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5673,7 +5676,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,7 +5694,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
@@ -5719,7 +5722,7 @@
         <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>24</v>
@@ -5743,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5771,7 +5774,7 @@
         <v>20</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,7 +5840,7 @@
         <v>1054</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>19</v>
@@ -5867,13 +5870,13 @@
         <v>2981</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,7 +5897,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5939,7 +5942,7 @@
         <v>2731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>19</v>
@@ -5969,13 +5972,13 @@
         <v>2731</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,7 +5999,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6082,7 +6085,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4004B2C1-0494-4501-957A-0FFDCE844FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{732C4C92-6293-49A4-B87B-D1BDCA6AAE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9163B737-4154-4BBE-90CA-5F9152A1E3DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B49D24A-9D02-41FC-84E3-C255C4EBA6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,7 +130,7 @@
     <t>65,98%</t>
   </si>
   <si>
-    <t>16,57%</t>
+    <t>16,71%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -139,19 +139,19 @@
     <t>75,22%</t>
   </si>
   <si>
-    <t>36,65%</t>
+    <t>37,77%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>83,43%</t>
+    <t>83,29%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>63,35%</t>
+    <t>62,23%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -163,43 +163,43 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>58,55%</t>
+    <t>66,09%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>45,54%</t>
+    <t>45,89%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,64%</t>
+    <t>72,59%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,96%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -223,7 +223,7 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2015 (Tasa respuesta: 0,09%)</t>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2016 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -238,7 +238,7 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>16,0%</t>
+    <t>15,92%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -256,7 +256,7 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>84,0%</t>
+    <t>84,08%</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C8C4FD-AB44-4739-BF97-B266A70C1F72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A338548-4952-4877-99C9-AD7CA4EC8C5B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2471,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63057428-46EA-4E7D-81EE-87DE6F104BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A23308-3F7B-40BD-B49B-32ABC34412E6}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4274,7 +4274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2958B0D0-5136-478A-B0A7-C55E4079DEF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8706D19-E48D-4B4C-B0C7-B91D44FE4A6E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P37AS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{732C4C92-6293-49A4-B87B-D1BDCA6AAE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C092E6E9-8CF7-477B-9338-726928C9A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B49D24A-9D02-41FC-84E3-C255C4EBA6A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBB363B3-0318-493B-9B35-6141853A00D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="72">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -139,7 +139,7 @@
     <t>75,22%</t>
   </si>
   <si>
-    <t>37,77%</t>
+    <t>35,09%</t>
   </si>
   <si>
     <t>34,02%</t>
@@ -151,7 +151,7 @@
     <t>24,78%</t>
   </si>
   <si>
-    <t>62,23%</t>
+    <t>64,91%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -163,43 +163,40 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>66,09%</t>
+    <t>65,38%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>45,89%</t>
+    <t>46,14%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,59%</t>
+    <t>72,79%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,71%</t>
+    <t>56,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -238,7 +235,7 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>15,92%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -256,7 +253,7 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>84,08%</t>
+    <t>84,0%</t>
   </si>
 </sst>
 </file>
@@ -668,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A338548-4952-4877-99C9-AD7CA4EC8C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B325A8-F1F2-4658-A69A-C08C8ECB5879}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2342,7 +2339,7 @@
         <v>48</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2354,13 @@
         <v>1883</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2387,13 +2384,13 @@
         <v>1883</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,7 +2446,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A23308-3F7B-40BD-B49B-32ABC34412E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C4284A-DEB1-48A0-BCCB-1F932F4B5CED}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2488,7 +2485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3756,7 +3753,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3807,7 +3804,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3855,7 +3852,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
@@ -3885,7 +3882,7 @@
         <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>24</v>
@@ -3909,7 +3906,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4112,7 +4109,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>24</v>
@@ -4142,7 +4139,7 @@
         <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>24</v>
@@ -4252,7 +4249,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4274,7 +4271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8706D19-E48D-4B4C-B0C7-B91D44FE4A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F092D-76D6-420B-BEF0-4D28BD0A391C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4291,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5599,7 +5596,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5627,7 +5624,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,7 +5645,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5676,7 +5673,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5691,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
@@ -5722,7 +5719,7 @@
         <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>24</v>
@@ -5746,7 +5743,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5774,7 +5771,7 @@
         <v>20</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,7 +5837,7 @@
         <v>1054</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>19</v>
@@ -5870,13 +5867,13 @@
         <v>2981</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,7 +5894,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5942,7 +5939,7 @@
         <v>2731</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>19</v>
@@ -5972,13 +5969,13 @@
         <v>2731</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,7 +5996,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6085,7 +6082,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C092E6E9-8CF7-477B-9338-726928C9A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BCB73D-C804-458A-9056-1F3A39F4703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBB363B3-0318-493B-9B35-6141853A00D7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{213F4E54-14A9-43C7-8B39-4C54E64E5F84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="70">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otros</t>
@@ -85,16 +85,16 @@
     <t>El médico, por mi edad</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -115,105 +115,108 @@
     <t>100%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2012 (Tasa respuesta: 0,12%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2012 (Tasa respuesta: 0,12%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
     <t>73,58%</t>
   </si>
   <si>
@@ -223,12 +226,6 @@
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2016 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>27,85%</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>84,98%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
   </si>
   <si>
     <t>72,15%</t>
@@ -665,8 +659,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B325A8-F1F2-4658-A69A-C08C8ECB5879}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57B34D7-73BF-475D-9EDE-AF8266DCFF8E}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1965,22 +1959,22 @@
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,22 +2010,22 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,46 +2034,46 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>3653</v>
+        <v>2845</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>2064</v>
+        <v>982</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M31" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>5718</v>
+        <v>3826</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>22</v>
@@ -2097,13 +2091,13 @@
         <v>1883</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2118,22 +2112,22 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,40 +2136,40 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4728</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>982</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="7">
         <v>6</v>
       </c>
-      <c r="D33" s="7">
-        <v>5536</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2064</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8</v>
-      </c>
       <c r="N33" s="7">
-        <v>7601</v>
+        <v>5710</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
@@ -2189,7 +2183,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2207,7 +2201,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2222,7 +2216,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2237,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,19 +2240,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2273,22 +2267,22 @@
         <v>20</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,49 +2291,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>3653</v>
+        <v>809</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H36" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>2064</v>
+        <v>1083</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>5718</v>
+        <v>1891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,19 +2342,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>1883</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2375,22 +2369,22 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>1883</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,63 +2393,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>809</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1083</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1891</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
+        <v>944</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>944</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3653</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2064</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="7">
+        <v>6</v>
+      </c>
+      <c r="N41" s="7">
+        <v>5718</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1883</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1883</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>7</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>6480</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="7">
         <v>2</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>2064</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="7">
         <v>9</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>8545</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>53</v>
+      <c r="O43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2468,8 +2720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C4284A-DEB1-48A0-BCCB-1F932F4B5CED}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A43BDC6-7368-48EF-9490-80A875FC78CB}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2485,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,7 +4005,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3768,7 +4020,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3783,7 +4035,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3819,7 +4071,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3834,7 +4086,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,46 +4095,46 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>5073</v>
+        <v>2010</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>2857</v>
+        <v>1770</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M31" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>7931</v>
+        <v>3780</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>24</v>
@@ -3906,7 +4158,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3921,7 +4173,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3936,7 +4188,7 @@
         <v>20</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,10 +4197,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5073</v>
+        <v>2010</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>24</v>
@@ -3960,10 +4212,10 @@
         <v>24</v>
       </c>
       <c r="H33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>2857</v>
+        <v>1770</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
@@ -3975,10 +4227,10 @@
         <v>24</v>
       </c>
       <c r="M33" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N33" s="7">
-        <v>7931</v>
+        <v>3780</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
@@ -3992,7 +4244,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4010,7 +4262,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4025,7 +4277,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4040,7 +4292,7 @@
         <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4313,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4076,7 +4328,7 @@
         <v>20</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4091,7 +4343,7 @@
         <v>20</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,46 +4352,46 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>6090</v>
+        <v>3063</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>2857</v>
+        <v>1087</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M36" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N36" s="7">
-        <v>8947</v>
+        <v>4151</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>24</v>
@@ -4163,7 +4415,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4178,7 +4430,7 @@
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4193,7 +4445,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,63 +4454,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3063</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1087</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="7">
+        <v>4</v>
+      </c>
+      <c r="N38" s="7">
+        <v>4151</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
         <v>6</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D41" s="7">
         <v>6090</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="7">
         <v>2</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I41" s="7">
         <v>2857</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="7">
         <v>8</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N41" s="7">
         <v>8947</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>53</v>
+      <c r="O41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7">
+        <v>6090</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="7">
+        <v>2</v>
+      </c>
+      <c r="I43" s="7">
+        <v>2857</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="7">
+        <v>8</v>
+      </c>
+      <c r="N43" s="7">
+        <v>8947</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4271,8 +4781,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F092D-76D6-420B-BEF0-4D28BD0A391C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F18A00F-C54B-4457-8DAA-A70FB5777CF3}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4288,7 +4798,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5596,7 +6106,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5624,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,7 +6155,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5673,7 +6183,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,16 +6192,16 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>2731</v>
+        <v>1862</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>24</v>
@@ -5710,16 +6220,16 @@
         <v>11</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>2731</v>
+        <v>1862</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>24</v>
@@ -5743,7 +6253,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5771,7 +6281,7 @@
         <v>20</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,10 +6290,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>2731</v>
+        <v>1862</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>24</v>
@@ -5808,10 +6318,10 @@
         <v>11</v>
       </c>
       <c r="M33" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33" s="7">
-        <v>2731</v>
+        <v>1862</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
@@ -5825,55 +6335,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M34" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>2981</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,22 +6402,20 @@
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -5924,7 +6430,7 @@
         <v>20</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,49 +6439,47 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>2731</v>
+        <v>869</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1</v>
+      </c>
+      <c r="N36" s="7">
+        <v>869</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="7">
-        <v>3</v>
-      </c>
-      <c r="N36" s="7">
-        <v>2731</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="P36" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,22 +6500,20 @@
         <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6026,7 +6528,7 @@
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,63 +6537,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>869</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>869</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1054</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1927</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2981</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2731</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="7">
+        <v>3</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2731</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>4</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>3785</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="7">
         <v>2</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1927</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="7">
         <v>6</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>5712</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>53</v>
+      <c r="O43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
